--- a/Responsive_Website/Spreadsheet2nd.xlsx
+++ b/Responsive_Website/Spreadsheet2nd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sen\Documents\Python-Projects\Responsive_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E054A20E-2260-47EF-B136-CE1689AFC291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5008D90-4F50-447C-A701-1478A04F9738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="310">
-  <si>
-    <t>rhastings@netflix.com</t>
-  </si>
-  <si>
-    <t>Reed Hastings</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="333">
   <si>
     <t>Netflix</t>
   </si>
@@ -97,13 +91,7 @@
     <t>Lead Software Engineer in San francisco, California, United States</t>
   </si>
   <si>
-    <t>CEO</t>
-  </si>
-  <si>
     <t>Santa Cruz California</t>
-  </si>
-  <si>
-    <t>Sundor Pichai</t>
   </si>
   <si>
     <t>Google.inc</t>
@@ -111,9 +99,6 @@
   <si>
     <t>1600 Amphitheatre Parkway Mountain View, CA 4043
 USA</t>
-  </si>
-  <si>
-    <t>SundarPichai@google.com</t>
   </si>
   <si>
     <t>Dropbox</t>
@@ -174,31 +159,16 @@
     </r>
   </si>
   <si>
-    <t>mdenson@dayspring-tech.com</t>
-  </si>
-  <si>
     <t>Lead Developer</t>
   </si>
   <si>
     <t>Dayspring Technologies, Inc.</t>
   </si>
   <si>
-    <t>Matthew Denson</t>
-  </si>
-  <si>
     <t>https://www.unit21.ai/</t>
   </si>
   <si>
-    <t>trisha@unit21.ai</t>
-  </si>
-  <si>
-    <t>Trisha Kothari</t>
-  </si>
-  <si>
     <t>Unit21</t>
-  </si>
-  <si>
-    <t>CEO and Co-founder</t>
   </si>
   <si>
     <t>95 Federal Street, Suite 3A
@@ -209,76 +179,40 @@
 San Francisco, CA 94111</t>
   </si>
   <si>
-    <t>Sajith Wickramasekara</t>
-  </si>
-  <si>
     <t>Benchling</t>
   </si>
   <si>
-    <t>Founder &amp; CEO</t>
-  </si>
-  <si>
     <t>www.benchling.com</t>
   </si>
   <si>
-    <t>sajith@benchling.com</t>
-  </si>
-  <si>
-    <t>Gregory Simon</t>
-  </si>
-  <si>
     <t>Loyyal</t>
   </si>
   <si>
-    <t>CEO &amp; Founder</t>
-  </si>
-  <si>
     <t>https://loyyal.com/</t>
   </si>
   <si>
     <t>44 Tehama St, San Francisco, CA 94105</t>
   </si>
   <si>
-    <t>greg@loyyal.com</t>
-  </si>
-  <si>
     <t>1355 Market Street Suite 900 San Francisco, CA 94103 USA</t>
   </si>
   <si>
-    <t>jackdorsey@twitter.com</t>
-  </si>
-  <si>
     <t>Twitter</t>
   </si>
   <si>
     <t>https://twitter.com</t>
   </si>
   <si>
-    <t>Jack Dorsey</t>
-  </si>
-  <si>
-    <t>jeffbezos@amazon.com</t>
-  </si>
-  <si>
     <t>www.amazon.com</t>
   </si>
   <si>
-    <t>Jeff Bezos</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
-    <t>juliette@tunein.com</t>
-  </si>
-  <si>
     <t>www.tunein.com</t>
   </si>
   <si>
     <t>Tunein</t>
-  </si>
-  <si>
-    <t>liette Morris</t>
   </si>
   <si>
     <t>210 King Street, 3rd Floor
@@ -295,19 +229,10 @@
     <t>Joyent, Inc.</t>
   </si>
   <si>
-    <t>Alexander Skalabanov</t>
-  </si>
-  <si>
-    <t>Co-founder and Board Director</t>
-  </si>
-  <si>
     <t>Intellectsoft US</t>
   </si>
   <si>
     <t>https://www.intellectsoft.net/</t>
-  </si>
-  <si>
-    <t>alexander.skalabanov@intellectsoft.net</t>
   </si>
   <si>
     <t>Contact no.</t>
@@ -320,19 +245,10 @@
     <t>(+1650-300-4335)</t>
   </si>
   <si>
-    <t>Sumit Chachra</t>
-  </si>
-  <si>
     <t>Tivix.inc</t>
   </si>
   <si>
-    <t>CEO &amp; CTO</t>
-  </si>
-  <si>
     <t>https://www.tivix.com/</t>
-  </si>
-  <si>
-    <t>schachra@tivix.com</t>
   </si>
   <si>
     <t>(+1 415-680-1299)</t>
@@ -342,15 +258,7 @@
 San Francisco, CA 94108</t>
   </si>
   <si>
-    <t xml:space="preserve">Founder, Chairman, and Chief Executive Officer
-</t>
-  </si>
-  <si>
     <t>WizeLine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Bismarck Lepe</t>
   </si>
   <si>
     <t>https://www.wizeline.com/</t>
@@ -366,16 +274,7 @@
     <t xml:space="preserve"> 74 Tehama Street, San Francisco, CA 94105</t>
   </si>
   <si>
-    <t>Pramod Dabir</t>
-  </si>
-  <si>
-    <t>CEO and Co-Founder</t>
-  </si>
-  <si>
     <t>West Agile Labs</t>
-  </si>
-  <si>
-    <t>pdabir@westagilelabs.com</t>
   </si>
   <si>
     <t>https://www.westagilelabs.com/</t>
@@ -392,28 +291,13 @@
     <t>https://www.projekt202.com/</t>
   </si>
   <si>
-    <t>peter.eckert@projekt202.com</t>
-  </si>
-  <si>
-    <t>Peter Eckert</t>
-  </si>
-  <si>
     <t>projekt202</t>
   </si>
   <si>
-    <t>Chief Experience Officer, Founder</t>
-  </si>
-  <si>
-    <t>taso@toptal.com</t>
-  </si>
-  <si>
     <t>https://www.toptal.com/</t>
   </si>
   <si>
     <t>Toptal</t>
-  </si>
-  <si>
-    <t>Tasu Du Val</t>
   </si>
   <si>
     <t>Toptal, LLC
@@ -424,16 +308,10 @@
     <t>(+1 888-604-3188)</t>
   </si>
   <si>
-    <t>Tony Scherba</t>
-  </si>
-  <si>
     <t>Yeti</t>
   </si>
   <si>
     <t>https://yeti.co/</t>
-  </si>
-  <si>
-    <t>tony@yeti.co</t>
   </si>
   <si>
     <t>224 11th Street</t>
@@ -452,9 +330,6 @@
 San Francisco, CA 94124</t>
   </si>
   <si>
-    <t>John Sung Kim</t>
-  </si>
-  <si>
     <t>https://jetbridge.com/</t>
   </si>
   <si>
@@ -485,18 +360,6 @@
     <t>https://www.aimeerae.com/</t>
   </si>
   <si>
-    <t>fabricio.gonzalez@dynamia.uy</t>
-  </si>
-  <si>
-    <t>https://www.dynamia.us/</t>
-  </si>
-  <si>
-    <t>Dynamia</t>
-  </si>
-  <si>
-    <t>Fabricio González Antuña</t>
-  </si>
-  <si>
     <t>156 2nd St, CA 94105, SFC</t>
   </si>
   <si>
@@ -506,9 +369,6 @@
     <t>CTO, Head of Development</t>
   </si>
   <si>
-    <t>Darius Zagrean</t>
-  </si>
-  <si>
     <t>SF AppWorks</t>
   </si>
   <si>
@@ -518,15 +378,9 @@
     <t>(+1 918-373-9364)</t>
   </si>
   <si>
-    <t>darius@sfappworks.com</t>
-  </si>
-  <si>
     <t>San Francisco</t>
   </si>
   <si>
-    <t>Weiting Liu</t>
-  </si>
-  <si>
     <t>https://arc.dev/</t>
   </si>
   <si>
@@ -539,25 +393,7 @@
     <t>Arc/Codementor</t>
   </si>
   <si>
-    <t>Web designer</t>
-  </si>
-  <si>
-    <t>Feral Studio</t>
-  </si>
-  <si>
-    <t>Sterling Lentz</t>
-  </si>
-  <si>
-    <t>ashesh@fusioninformatics.com</t>
-  </si>
-  <si>
-    <t>Ashesh Shah</t>
-  </si>
-  <si>
     <t>fusioninformatics</t>
-  </si>
-  <si>
-    <t>Co-Founder &amp; CEO</t>
   </si>
   <si>
     <t>https://www.fusioninformatics.com/</t>
@@ -570,16 +406,10 @@
 United States of America</t>
   </si>
   <si>
-    <t xml:space="preserve">Reza Khosravi </t>
-  </si>
-  <si>
     <t>Galliot</t>
   </si>
   <si>
     <t>https://galliot.us/</t>
-  </si>
-  <si>
-    <t>reza@galliot.us</t>
   </si>
   <si>
     <t>601 4th St UNIT 309, San Francisco, CA 94107, United States</t>
@@ -589,48 +419,24 @@
 Suite 210, Sunnyvale San Francisco, CA 94086, United States</t>
   </si>
   <si>
-    <t>Co-Founder</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fortunesoft </t>
   </si>
   <si>
-    <t>Deepu George</t>
-  </si>
-  <si>
     <t>https://www.fortunesoftit.com/</t>
   </si>
   <si>
-    <t>deepu.george@fortunesoftit.com</t>
-  </si>
-  <si>
     <t>Globant</t>
   </si>
   <si>
     <t>https://www.globant.com/</t>
   </si>
   <si>
-    <t>Martin.Migoya@globant.com</t>
-  </si>
-  <si>
-    <t>Martin Migoya</t>
-  </si>
-  <si>
     <t>(+1 877-215-5230)</t>
   </si>
   <si>
     <t>875 Howard St, Suite 320, San Francisco, CA 94103</t>
   </si>
   <si>
-    <t>https://wexpertsfromindia.com/</t>
-  </si>
-  <si>
-    <t>Rama Mclntosh</t>
-  </si>
-  <si>
-    <t>Expertsfromindia</t>
-  </si>
-  <si>
     <t>(+1-888-572-3991)</t>
   </si>
   <si>
@@ -643,28 +449,13 @@
     <t>972 Mission St., Knotel 3rd Fl., San Francisco, California, 94103, United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Co-CEO </t>
-  </si>
-  <si>
-    <t>Andrew Haller</t>
-  </si>
-  <si>
     <t>https://airdev.co/</t>
   </si>
   <si>
-    <t>andrew@airdev.co</t>
-  </si>
-  <si>
     <t>https://www.parkside-interactive.com/</t>
   </si>
   <si>
-    <t>Ralph Harreiter</t>
-  </si>
-  <si>
     <t>Parkside Informationstechnologie</t>
-  </si>
-  <si>
-    <t>harreiter@parkside.at</t>
   </si>
   <si>
     <t>Canopy, Jackson Square
@@ -672,21 +463,12 @@
 San Francisco, CA 94133, USA</t>
   </si>
   <si>
-    <t>Alex Shkor</t>
-  </si>
-  <si>
     <t>Deip</t>
   </si>
   <si>
-    <t>CEO, Founder</t>
-  </si>
-  <si>
     <t>https://deip.world/</t>
   </si>
   <si>
-    <t>alex@deip.world</t>
-  </si>
-  <si>
     <t>Director UI design</t>
   </si>
   <si>
@@ -705,67 +487,19 @@
     <t>https://kindandhuman.com/</t>
   </si>
   <si>
-    <t>2443 Fillmore St. #380-16207, San Francisco, CA 94115</t>
-  </si>
-  <si>
-    <t>darren@stimulant.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Founder + CEO </t>
-  </si>
-  <si>
-    <t>https://stimulant.com/</t>
-  </si>
-  <si>
-    <t>Stimulant</t>
-  </si>
-  <si>
-    <t>Darren David</t>
-  </si>
-  <si>
     <t>575 Sutter St., San Francisco, California 94102, US</t>
   </si>
   <si>
-    <t>Brendan Hyland</t>
-  </si>
-  <si>
-    <t>Managing Partner, Project Management</t>
-  </si>
-  <si>
     <t>Bayinteractive,inc</t>
   </si>
   <si>
     <t>http://www.bayinteractive.com/</t>
   </si>
   <si>
-    <t>b.hyland@bayinteractive.com</t>
-  </si>
-  <si>
     <t>18 Bartol Street #139 San Francisco, CA 94107</t>
   </si>
   <si>
-    <t>https://www.livewireapps.com/</t>
-  </si>
-  <si>
-    <t>LiveWire</t>
-  </si>
-  <si>
-    <t>Arsalan Amdani</t>
-  </si>
-  <si>
-    <t>arsalan@livewireapps.com</t>
-  </si>
-  <si>
-    <t>andrew.zimmerman@frogdesign.com</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
     <t>frog design</t>
-  </si>
-  <si>
-    <t>Andrew Zimmerman</t>
   </si>
   <si>
     <t>https://www.frogdesign.com/</t>
@@ -787,72 +521,23 @@
     <t>https://coronalabs.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Surojit (Roj) Niyogi</t>
-  </si>
-  <si>
-    <t>roj@coronalabs.com</t>
-  </si>
-  <si>
-    <t>https://www.urthecast.com/</t>
-  </si>
-  <si>
-    <t>Don Osborne</t>
-  </si>
-  <si>
-    <t>President, CEO and Director</t>
-  </si>
-  <si>
-    <t>UrtheCast</t>
-  </si>
-  <si>
-    <t>dosborne@urthecast.com</t>
-  </si>
-  <si>
     <t>156 2nd Street
 SF, CA 94105</t>
   </si>
   <si>
-    <t>CEO, CTO, Engineer</t>
-  </si>
-  <si>
     <t>Cloud City Development</t>
   </si>
   <si>
-    <t>Kenzi (Tim) Connor</t>
-  </si>
-  <si>
     <t>https://www.cloudcity.io/</t>
   </si>
   <si>
-    <t>kenzi.connor@cloudcity.io</t>
-  </si>
-  <si>
     <t>1390 Market St, Suite 200 San Francisco CA 94102</t>
   </si>
   <si>
-    <t>Mahendra Alladi</t>
-  </si>
-  <si>
     <t>ACCELQ Inc.</t>
   </si>
   <si>
     <t>https://www.accelq.com/</t>
-  </si>
-  <si>
-    <t>alladi.mahendra@accelq.com</t>
-  </si>
-  <si>
-    <t>James Varga</t>
-  </si>
-  <si>
-    <t>The ID Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEO &amp; Founder </t>
-  </si>
-  <si>
-    <t>https://directid.theidco.com/</t>
   </si>
   <si>
     <t>1390 Market Street, Suite 200
@@ -861,9 +546,6 @@
 USA</t>
   </si>
   <si>
-    <t>j.varga@theidco.com</t>
-  </si>
-  <si>
     <t>18 Bartol Street,
 San Francisco, CA, 94133</t>
   </si>
@@ -871,16 +553,7 @@
     <t>https://www.cuelogic.com/</t>
   </si>
   <si>
-    <t>Founder and CEO</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cuelogic Technologies</t>
-  </si>
-  <si>
-    <t>Nikhil Ambekar</t>
-  </si>
-  <si>
-    <t>nikhil@cuelogic.com</t>
   </si>
   <si>
     <t>1990 N. California Blvd.
@@ -891,13 +564,7 @@
     <t xml:space="preserve">Trueforce, Inc. </t>
   </si>
   <si>
-    <t>GUS LAREDO</t>
-  </si>
-  <si>
     <t>http://www.trueforce.com/</t>
-  </si>
-  <si>
-    <t>gus@trueforce.com</t>
   </si>
   <si>
     <t>268 Bush Street, #3034
@@ -910,22 +577,10 @@
     <t>Infuse.us</t>
   </si>
   <si>
-    <t>Karl Thomsen</t>
-  </si>
-  <si>
-    <t>karl@infuse.us</t>
-  </si>
-  <si>
     <t>SPAN Digital Innovation</t>
   </si>
   <si>
-    <t>Chris Lyon</t>
-  </si>
-  <si>
     <t>https://www.spandigital.com/</t>
-  </si>
-  <si>
-    <t>chris@velosmobile.com</t>
   </si>
   <si>
     <t>333 Bryant Street, Suite 140
@@ -961,28 +616,13 @@
     <t>SoftAvail</t>
   </si>
   <si>
-    <t>Nikolay Bankov</t>
-  </si>
-  <si>
-    <t>nick@softavail.com</t>
-  </si>
-  <si>
     <t>424 Clay Street, Lower Level, San Francisco, CA 94111, US</t>
   </si>
   <si>
-    <t>Alex Gonikman</t>
-  </si>
-  <si>
-    <t>CoFounder</t>
-  </si>
-  <si>
     <t>True North</t>
   </si>
   <si>
     <t>https://www.truenorth.co/</t>
-  </si>
-  <si>
-    <t>alex.gonikman@gmail.com</t>
   </si>
   <si>
     <t>44 Tehama St, San Francisco,
@@ -996,15 +636,6 @@
     <t>VSH Solutions</t>
   </si>
   <si>
-    <t>Founder and Managing Director</t>
-  </si>
-  <si>
-    <t>Hrishikesh Kale</t>
-  </si>
-  <si>
-    <t>hrishikesh@vshsolutions.com</t>
-  </si>
-  <si>
     <t>Matthieu Riou</t>
   </si>
   <si>
@@ -1017,35 +648,473 @@
     <t xml:space="preserve">727 Sansome St.  San Francisco, CA, 94111,  U.S.A </t>
   </si>
   <si>
-    <t>Peter Carrubba</t>
-  </si>
-  <si>
     <t>Admios</t>
   </si>
   <si>
-    <t>Founder</t>
-  </si>
-  <si>
     <t>https://www.admios.com/</t>
-  </si>
-  <si>
-    <t>Peter.Carrubba@admios.com</t>
   </si>
   <si>
     <t>585 Howard St, 2nd Fl
 San Francisco, CA 94105</t>
   </si>
   <si>
-    <t>m_wynholds@carbonfive.com</t>
-  </si>
-  <si>
-    <t>Mike Wynholds</t>
-  </si>
-  <si>
     <t>https://www.carbonfive.com/</t>
   </si>
   <si>
     <t>Carbon Five</t>
+  </si>
+  <si>
+    <t>VP Engineering</t>
+  </si>
+  <si>
+    <t>Christian Nelson</t>
+  </si>
+  <si>
+    <t>christiannelson@carbonfive.com</t>
+  </si>
+  <si>
+    <t>kelly.ross@admios.com</t>
+  </si>
+  <si>
+    <t>Kelly Ross</t>
+  </si>
+  <si>
+    <t>Software Team Integration</t>
+  </si>
+  <si>
+    <t>Carlos Alvarez Lopez</t>
+  </si>
+  <si>
+    <t>Sr Full-Stack Software Engineer</t>
+  </si>
+  <si>
+    <t>carlos.alvarez@truenorth.co</t>
+  </si>
+  <si>
+    <t>ergun@softavail.com</t>
+  </si>
+  <si>
+    <t>Ergun Syuleyman</t>
+  </si>
+  <si>
+    <t>Senior Developer</t>
+  </si>
+  <si>
+    <t>Dominic Follett-Smith</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>dominic.smith@spandigital.com</t>
+  </si>
+  <si>
+    <t>Laura Pearson</t>
+  </si>
+  <si>
+    <t>laura@infuse.us</t>
+  </si>
+  <si>
+    <t>Senior Technology Executive</t>
+  </si>
+  <si>
+    <t>Daniel Gumucio</t>
+  </si>
+  <si>
+    <t>daniel.gumucio@trueforce.com</t>
+  </si>
+  <si>
+    <t>Sunu Sasidharan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head of Technology </t>
+  </si>
+  <si>
+    <t>sunu.sasidharan@cuelogic.com</t>
+  </si>
+  <si>
+    <t>Test Automation platform for all your Quality Engineering needs</t>
+  </si>
+  <si>
+    <t>M.Veeranjaneya Reddy {LION}</t>
+  </si>
+  <si>
+    <t>m.reddy@accelq.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr. Development Manager </t>
+  </si>
+  <si>
+    <t>Gabriel Williams</t>
+  </si>
+  <si>
+    <t>gabriel.williams@cloudcity.io</t>
+  </si>
+  <si>
+    <t>Mobile games developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Jhancarlo Silva Ochoa</t>
+  </si>
+  <si>
+    <t>jo@androiddeveloper.co.in</t>
+  </si>
+  <si>
+    <t>Design Director</t>
+  </si>
+  <si>
+    <t>Kat Davis</t>
+  </si>
+  <si>
+    <t>davis.kat@frogdesign.com</t>
+  </si>
+  <si>
+    <t>R.Ayu Maulidina Iskandariya</t>
+  </si>
+  <si>
+    <t>iOS Developer</t>
+  </si>
+  <si>
+    <t>r.maulidina@bayinteractive.com</t>
+  </si>
+  <si>
+    <t>Isaac Gierard</t>
+  </si>
+  <si>
+    <t>Technical Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">665 Chestnut St., Floor 2 San Francisco, CA94133
+</t>
+  </si>
+  <si>
+    <t>http://www.briteliteimmersive.com/</t>
+  </si>
+  <si>
+    <t>Britelite Immersive</t>
+  </si>
+  <si>
+    <t>igierard@briteliteimmersive.com</t>
+  </si>
+  <si>
+    <t>Yahor Tsaryk</t>
+  </si>
+  <si>
+    <t>Tech Lead</t>
+  </si>
+  <si>
+    <t>yahortsaryk@deip.world</t>
+  </si>
+  <si>
+    <t>mwiesinger@parkside.at</t>
+  </si>
+  <si>
+    <t>Moritz Wiesinger</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>chrisanderson@airdev.co</t>
+  </si>
+  <si>
+    <t>Chris Anderson</t>
+  </si>
+  <si>
+    <t>paul.cullin@globant.com</t>
+  </si>
+  <si>
+    <t>Paul Cullin</t>
+  </si>
+  <si>
+    <t>Technical Director</t>
+  </si>
+  <si>
+    <t>Site Reliability Engineer</t>
+  </si>
+  <si>
+    <t>Patryk Przekwas</t>
+  </si>
+  <si>
+    <t>patryk.przekwas@galliot.us</t>
+  </si>
+  <si>
+    <t>Harish Vajrangi</t>
+  </si>
+  <si>
+    <t>harish.vajrangi@fortunesoftit.com</t>
+  </si>
+  <si>
+    <t>jill@fusioninformatics.com</t>
+  </si>
+  <si>
+    <t>Mobile app developer and tech writer</t>
+  </si>
+  <si>
+    <t>Jill Davenport</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer</t>
+  </si>
+  <si>
+    <t>Fatih Türker</t>
+  </si>
+  <si>
+    <t>jones@sfappworks.com</t>
+  </si>
+  <si>
+    <t>Jones William</t>
+  </si>
+  <si>
+    <t>anna@jetbridge.com</t>
+  </si>
+  <si>
+    <t>Anna Medvedeva</t>
+  </si>
+  <si>
+    <t>alex@yeti.co</t>
+  </si>
+  <si>
+    <t>Alex Lin</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>mark.wlodawski@toptal.com</t>
+  </si>
+  <si>
+    <t>Mark Wlodawski</t>
+  </si>
+  <si>
+    <t>warner.witt@projekt202.com</t>
+  </si>
+  <si>
+    <t>Warner Witt</t>
+  </si>
+  <si>
+    <t>aaron@westagilelabs.com</t>
+  </si>
+  <si>
+    <t>Aaron Gette</t>
+  </si>
+  <si>
+    <t>Chief Technology Officer</t>
+  </si>
+  <si>
+    <t>Alvaro Samuel Laguna Chávez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Software Engineer
+</t>
+  </si>
+  <si>
+    <t>jan.romaniak@tivix.com</t>
+  </si>
+  <si>
+    <t>Jan Romaniak</t>
+  </si>
+  <si>
+    <t>Software developer</t>
+  </si>
+  <si>
+    <t>dewitt.kasper@intellectsoft.net</t>
+  </si>
+  <si>
+    <t>Dewitt P. Kasper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Developer </t>
+  </si>
+  <si>
+    <t>User Interface Engineer</t>
+  </si>
+  <si>
+    <t>abhishek.jha@vshsolutions.com</t>
+  </si>
+  <si>
+    <t>Abhishek Jha</t>
+  </si>
+  <si>
+    <t>agupta@amazon.com</t>
+  </si>
+  <si>
+    <t>Aabhaas Gupta</t>
+  </si>
+  <si>
+    <t>Software Development Engineer</t>
+  </si>
+  <si>
+    <t>Director, Software Engineering</t>
+  </si>
+  <si>
+    <t>Kathleen Vignos</t>
+  </si>
+  <si>
+    <t>kvignos@twitter.com</t>
+  </si>
+  <si>
+    <t>Michael Doran</t>
+  </si>
+  <si>
+    <t>michael_doran@loyyal.com</t>
+  </si>
+  <si>
+    <t>neena@benchling.com</t>
+  </si>
+  <si>
+    <t>Neena Parikh</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager</t>
+  </si>
+  <si>
+    <t>tyler@unit21.ai</t>
+  </si>
+  <si>
+    <t>Tyler Allen</t>
+  </si>
+  <si>
+    <t>alee@dayspring-tech.com</t>
+  </si>
+  <si>
+    <t>Andrew Lee</t>
+  </si>
+  <si>
+    <t>anirudh.todi@dropbox.com</t>
+  </si>
+  <si>
+    <t>Anirudh Todi</t>
+  </si>
+  <si>
+    <t>Engineering Leader</t>
+  </si>
+  <si>
+    <t>kshilpa@google.com</t>
+  </si>
+  <si>
+    <t>Engineering Director</t>
+  </si>
+  <si>
+    <t>Shilpa Kolhar</t>
+  </si>
+  <si>
+    <t>gagarwal@netflix.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering Leader </t>
+  </si>
+  <si>
+    <t>Gaurav Agarwal</t>
+  </si>
+  <si>
+    <t>Passionate about Security and Systems Architecture</t>
+  </si>
+  <si>
+    <t>aafable@tunein.com</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Andrealiz Afable</t>
+  </si>
+  <si>
+    <t>Julia Malko</t>
+  </si>
+  <si>
+    <t>Front-end developer</t>
+  </si>
+  <si>
+    <t>VironIT</t>
+  </si>
+  <si>
+    <t>https://vironit.com/</t>
+  </si>
+  <si>
+    <t>julia@vironit.com</t>
+  </si>
+  <si>
+    <t>Software Co</t>
+  </si>
+  <si>
+    <t>https://www.softwareco.com/</t>
+  </si>
+  <si>
+    <t>Muhammed Fiyas</t>
+  </si>
+  <si>
+    <t>Senior Lead Generation Expert &amp; Specialist &amp; Mentor</t>
+  </si>
+  <si>
+    <t>ccross@simform.com</t>
+  </si>
+  <si>
+    <t>Cassandra Cross</t>
+  </si>
+  <si>
+    <t>https://www.simform.com/</t>
+  </si>
+  <si>
+    <t>Senior Software Developer</t>
+  </si>
+  <si>
+    <t>Simform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Developer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selleo </t>
+  </si>
+  <si>
+    <t>https://selleo.com/</t>
+  </si>
+  <si>
+    <t>Dawid Loranc</t>
+  </si>
+  <si>
+    <t>dloranc@selleo.com</t>
+  </si>
+  <si>
+    <t>nuno.carvalhao@altar.io</t>
+  </si>
+  <si>
+    <t>Nuno Carvalhão</t>
+  </si>
+  <si>
+    <t>Full Stack Engineer</t>
+  </si>
+  <si>
+    <t>https://altar.io/</t>
+  </si>
+  <si>
+    <t>ALTAR</t>
+  </si>
+  <si>
+    <t>dreed@dedicateddevelopers.com</t>
+  </si>
+  <si>
+    <t>Drew Reed</t>
+  </si>
+  <si>
+    <t>Dedicated Developers</t>
+  </si>
+  <si>
+    <t>https://dedicateddevelopers.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Mobile App Developer </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pepper Square</t>
+  </si>
+  <si>
+    <t>Ananthakumar R</t>
+  </si>
+  <si>
+    <t>https://www.peppersquare.com/</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1364,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1450,6 +1519,30 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1473,9 +1566,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1501,7 +1591,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1788,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1814,142 +1904,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="A1" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
+      <c r="A1" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
     </row>
     <row r="6" spans="1:23" ht="23.25">
       <c r="A6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64" t="s">
+      <c r="H6" s="72"/>
+      <c r="I6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64" t="s">
+      <c r="L6" s="72"/>
+      <c r="M6" s="38" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="38" t="s">
-        <v>15</v>
       </c>
       <c r="N6" s="38"/>
       <c r="O6" s="38"/>
       <c r="P6" s="39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="40" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -1958,33 +2048,33 @@
       <c r="A7" s="53">
         <v>1</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="61"/>
+      <c r="B7" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7" s="69"/>
       <c r="I7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>294</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -1993,15 +2083,15 @@
     </row>
     <row r="8" spans="1:23" ht="18.75">
       <c r="A8" s="53"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -2015,33 +2105,33 @@
       <c r="A9" s="53">
         <v>2</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61" t="s">
+      <c r="B9" s="69" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="L9" s="69"/>
+      <c r="M9" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="61"/>
-      <c r="M9" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="6"/>
@@ -2050,20 +2140,20 @@
     </row>
     <row r="10" spans="1:23" ht="18.75">
       <c r="A10" s="53"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -2074,31 +2164,31 @@
       <c r="A11" s="53">
         <v>3</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="61"/>
+      <c r="B11" s="69" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="69"/>
       <c r="I11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="61"/>
+        <v>22</v>
+      </c>
+      <c r="K11" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="L11" s="69"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
@@ -2107,15 +2197,15 @@
     </row>
     <row r="12" spans="1:23" ht="18.75">
       <c r="A12" s="53"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -2129,480 +2219,480 @@
       <c r="A13" s="53">
         <v>4</v>
       </c>
-      <c r="B13" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="17" t="s">
-        <v>31</v>
+      <c r="B13" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="69"/>
+      <c r="I13" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="69"/>
+      <c r="K13" s="65" t="s">
+        <v>286</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q13" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="R13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
+        <v>78</v>
+      </c>
+      <c r="Q13" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
     </row>
     <row r="14" spans="1:23" ht="18.75">
       <c r="A14" s="53"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="37.5">
       <c r="A15" s="53">
         <v>5</v>
       </c>
-      <c r="B15" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="9" t="s">
-        <v>36</v>
+      <c r="B15" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="69"/>
+      <c r="I15" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="69"/>
+      <c r="K15" s="65" t="s">
+        <v>284</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
+        <v>30</v>
+      </c>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
       <c r="U15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="18.75">
       <c r="A16" s="53"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:17" ht="37.5">
       <c r="A17" s="53">
         <v>6</v>
       </c>
-      <c r="B17" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
+      <c r="B17" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="H17" s="69"/>
+      <c r="I17" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="69"/>
+      <c r="K17" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
       <c r="P17" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75">
       <c r="A18" s="53"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:17" ht="18.75">
       <c r="A19" s="53">
         <v>7</v>
       </c>
-      <c r="B19" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
+      <c r="B19" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="69"/>
+      <c r="G19" s="82" t="s">
+        <v>297</v>
+      </c>
+      <c r="H19" s="82"/>
+      <c r="I19" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="69"/>
+      <c r="K19" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
       <c r="P19" s="11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75">
       <c r="A20" s="53"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:17" ht="18.75">
       <c r="A21" s="53">
         <v>8</v>
       </c>
-      <c r="B21" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="61"/>
-      <c r="K21" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
+      <c r="B21" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69" t="s">
+        <v>276</v>
+      </c>
+      <c r="H21" s="69"/>
+      <c r="I21" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="69"/>
+      <c r="K21" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
       <c r="P21" s="11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="53"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
       <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:17" ht="18.75">
       <c r="A23" s="53">
         <v>9</v>
       </c>
-      <c r="B23" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="61"/>
-      <c r="K23" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
+      <c r="B23" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="69"/>
+      <c r="I23" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="69"/>
+      <c r="K23" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:17" ht="18.75">
       <c r="A24" s="53"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:17" ht="37.5">
       <c r="A25" s="53">
         <v>10</v>
       </c>
-      <c r="B25" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="61"/>
-      <c r="K25" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
+      <c r="B25" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69" t="s">
+        <v>299</v>
+      </c>
+      <c r="H25" s="69"/>
+      <c r="I25" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="69"/>
+      <c r="K25" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
       <c r="P25" s="12" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="18.75">
       <c r="A26" s="53"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
       <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:17" ht="18.75">
       <c r="A27" s="53">
         <v>11</v>
       </c>
-      <c r="B27" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" s="61"/>
-      <c r="K27" s="63" t="s">
-        <v>298</v>
-      </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
+      <c r="B27" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="69"/>
+      <c r="I27" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="69"/>
+      <c r="K27" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
       <c r="P27" s="20" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="53"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
       <c r="P28" s="11"/>
     </row>
     <row r="29" spans="1:17" ht="56.25">
       <c r="A29" s="53">
         <v>12</v>
       </c>
-      <c r="B29" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="J29" s="61"/>
-      <c r="K29" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
+      <c r="B29" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="H29" s="69"/>
+      <c r="I29" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="69"/>
+      <c r="K29" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
       <c r="P29" s="43" t="s">
-        <v>290</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="53"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
       <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="53"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
       <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:17" ht="18.75">
@@ -2611,33 +2701,33 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="61"/>
-      <c r="K32" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
+      <c r="D32" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="69"/>
+      <c r="I32" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="69"/>
+      <c r="K32" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
       <c r="P32" s="19" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="18.75">
@@ -2645,17 +2735,17 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
       <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:17" ht="18.75">
@@ -2665,32 +2755,32 @@
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="J34" s="61"/>
-      <c r="K34" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
+        <v>265</v>
+      </c>
+      <c r="E34" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="69"/>
+      <c r="I34" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="69"/>
+      <c r="K34" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
       <c r="P34" s="18" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="Q34" s="22" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="18.75">
@@ -2698,17 +2788,17 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
       <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:17" ht="37.5">
@@ -2718,29 +2808,29 @@
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="70"/>
-      <c r="I36" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="J36" s="61"/>
-      <c r="K36" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
+        <v>262</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="69"/>
+      <c r="G36" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="77"/>
+      <c r="I36" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="69"/>
+      <c r="K36" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
       <c r="P36" s="21" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="18.75">
@@ -2748,17 +2838,17 @@
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
       <c r="P37" s="11"/>
     </row>
     <row r="38" spans="1:17" ht="18.75">
@@ -2768,32 +2858,32 @@
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="J38" s="61"/>
-      <c r="K38" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
+        <v>260</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="69"/>
+      <c r="I38" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="69"/>
+      <c r="K38" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
       <c r="P38" s="11" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="Q38" s="22" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="18.75">
@@ -2801,17 +2891,17 @@
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
       <c r="P39" s="11"/>
     </row>
     <row r="40" spans="1:17" ht="18.75">
@@ -2821,29 +2911,29 @@
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="J40" s="61"/>
-      <c r="K40" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
+        <v>258</v>
+      </c>
+      <c r="E40" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="H40" s="69"/>
+      <c r="I40" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="69"/>
+      <c r="K40" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
       <c r="P40" s="27" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="18.75">
@@ -2851,17 +2941,17 @@
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
       <c r="P41" s="11"/>
     </row>
     <row r="42" spans="1:17" ht="18.75">
@@ -2871,32 +2961,32 @@
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="61"/>
-      <c r="I42" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" s="61"/>
-      <c r="K42" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
+        <v>256</v>
+      </c>
+      <c r="E42" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" s="69"/>
+      <c r="I42" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="69"/>
+      <c r="K42" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
       <c r="P42" s="20" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="Q42" s="22" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="18.75">
@@ -2904,17 +2994,17 @@
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
       <c r="P43" s="11"/>
     </row>
     <row r="44" spans="1:17" ht="18.75">
@@ -2924,29 +3014,29 @@
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="61"/>
-      <c r="I44" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="J44" s="61"/>
-      <c r="K44" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
+        <v>253</v>
+      </c>
+      <c r="E44" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="H44" s="69"/>
+      <c r="I44" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="69"/>
+      <c r="K44" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
       <c r="P44" s="28" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="18.75">
@@ -2954,19 +3044,19 @@
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
       <c r="P45" s="28" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="18.75">
@@ -2976,27 +3066,29 @@
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="67"/>
-      <c r="I46" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
+        <v>251</v>
+      </c>
+      <c r="E46" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="74"/>
+      <c r="I46" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="69"/>
+      <c r="K46" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
       <c r="P46" s="11" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="18.75">
@@ -3004,17 +3096,17 @@
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
       <c r="P47" s="11"/>
     </row>
     <row r="48" spans="1:17" ht="30">
@@ -3024,32 +3116,32 @@
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="67"/>
-      <c r="G48" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="H48" s="67"/>
-      <c r="I48" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="J48" s="61"/>
-      <c r="K48" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
+        <v>83</v>
+      </c>
+      <c r="E48" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="74"/>
+      <c r="G48" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="74"/>
+      <c r="I48" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="J48" s="69"/>
+      <c r="K48" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
       <c r="P48" s="15" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="Q48" s="33" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="18.75">
@@ -3057,17 +3149,17 @@
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
       <c r="P49" s="11"/>
     </row>
     <row r="50" spans="1:29" ht="18.75">
@@ -3077,32 +3169,32 @@
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="67"/>
-      <c r="I50" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="J50" s="61"/>
-      <c r="K50" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
+        <v>301</v>
+      </c>
+      <c r="E50" s="74" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74" t="s">
+        <v>302</v>
+      </c>
+      <c r="H50" s="74"/>
+      <c r="I50" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="J50" s="69"/>
+      <c r="K50" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
       <c r="P50" s="13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="Q50" s="22" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="18.75">
@@ -3110,17 +3202,17 @@
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
       <c r="P51" s="11"/>
     </row>
     <row r="52" spans="1:29" ht="18.75">
@@ -3130,32 +3222,32 @@
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E52" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="H52" s="67"/>
-      <c r="I52" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="J52" s="61"/>
-      <c r="K52" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="L52" s="61"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
+        <v>249</v>
+      </c>
+      <c r="E52" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="74"/>
+      <c r="I52" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J52" s="69"/>
+      <c r="K52" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
       <c r="P52" s="34" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="Q52" s="22" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="18.75">
@@ -3163,17 +3255,17 @@
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
       <c r="P53" s="11"/>
     </row>
     <row r="54" spans="1:29" ht="18.75">
@@ -3183,29 +3275,29 @@
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E54" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="61"/>
-      <c r="I54" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="J54" s="61"/>
-      <c r="K54" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="L54" s="61"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
+        <v>247</v>
+      </c>
+      <c r="E54" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="H54" s="69"/>
+      <c r="I54" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="J54" s="69"/>
+      <c r="K54" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
       <c r="P54" s="11" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="18.75">
@@ -3213,17 +3305,17 @@
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
       <c r="P55" s="11"/>
     </row>
     <row r="56" spans="1:29" ht="18.75">
@@ -3233,23 +3325,25 @@
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E56" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
+        <v>308</v>
+      </c>
+      <c r="E56" s="70" t="s">
+        <v>306</v>
+      </c>
+      <c r="F56" s="69"/>
+      <c r="G56" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="H56" s="69"/>
+      <c r="I56" s="71" t="s">
+        <v>307</v>
+      </c>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
       <c r="P56" s="11"/>
     </row>
     <row r="57" spans="1:29" ht="18.75">
@@ -3257,17 +3351,17 @@
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
       <c r="P57" s="11"/>
     </row>
     <row r="58" spans="1:29" ht="18.75">
@@ -3277,29 +3371,29 @@
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="H58" s="61"/>
-      <c r="I58" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="J58" s="61"/>
-      <c r="K58" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61"/>
+        <v>245</v>
+      </c>
+      <c r="E58" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="H58" s="69"/>
+      <c r="I58" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="J58" s="69"/>
+      <c r="K58" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
       <c r="P58" s="20" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="18.75">
@@ -3307,17 +3401,17 @@
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
       <c r="P59" s="11"/>
     </row>
     <row r="60" spans="1:29" ht="18.75">
@@ -3327,29 +3421,29 @@
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="61"/>
-      <c r="I60" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="J60" s="61"/>
-      <c r="K60" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="L60" s="61"/>
-      <c r="M60" s="61"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
+        <v>239</v>
+      </c>
+      <c r="E60" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="H60" s="69"/>
+      <c r="I60" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="J60" s="69"/>
+      <c r="K60" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
       <c r="P60" s="20" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="18.75">
@@ -3357,17 +3451,17 @@
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
       <c r="P61" s="11"/>
     </row>
     <row r="62" spans="1:29" ht="45">
@@ -3377,35 +3471,35 @@
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="H62" s="61"/>
-      <c r="I62" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="J62" s="61"/>
-      <c r="K62" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="L62" s="61"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
+        <v>241</v>
+      </c>
+      <c r="E62" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" s="69"/>
+      <c r="I62" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="J62" s="69"/>
+      <c r="K62" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="69"/>
       <c r="P62" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="T62" s="58"/>
-      <c r="U62" s="58"/>
-      <c r="V62" s="58"/>
-      <c r="W62" s="58"/>
-      <c r="X62" s="58"/>
+        <v>106</v>
+      </c>
+      <c r="T62" s="66"/>
+      <c r="U62" s="66"/>
+      <c r="V62" s="66"/>
+      <c r="W62" s="66"/>
+      <c r="X62" s="66"/>
     </row>
     <row r="63" spans="1:29" ht="37.5">
       <c r="A63" s="53">
@@ -3414,43 +3508,43 @@
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="61"/>
-      <c r="I63" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="J63" s="61"/>
-      <c r="K63" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="L63" s="61"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
+        <v>236</v>
+      </c>
+      <c r="E63" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="H63" s="69"/>
+      <c r="I63" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="J63" s="69"/>
+      <c r="K63" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
       <c r="P63" s="14" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="Q63" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="T63" s="58"/>
-      <c r="U63" s="58"/>
-      <c r="V63" s="58"/>
-      <c r="W63" s="58"/>
-      <c r="X63" s="58"/>
+        <v>111</v>
+      </c>
+      <c r="T63" s="66"/>
+      <c r="U63" s="66"/>
+      <c r="V63" s="66"/>
+      <c r="W63" s="66"/>
+      <c r="X63" s="66"/>
       <c r="Z63" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="18.75">
@@ -3458,25 +3552,25 @@
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="61"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="69"/>
+      <c r="O64" s="69"/>
       <c r="P64" s="11"/>
-      <c r="T64" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="U64" s="60"/>
-      <c r="V64" s="60"/>
-      <c r="W64" s="60"/>
-      <c r="X64" s="60"/>
+      <c r="T64" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="U64" s="68"/>
+      <c r="V64" s="68"/>
+      <c r="W64" s="68"/>
+      <c r="X64" s="68"/>
     </row>
     <row r="65" spans="1:29" ht="18.75">
       <c r="A65" s="53">
@@ -3485,30 +3579,32 @@
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E65" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="61"/>
-      <c r="I65" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
+        <v>311</v>
+      </c>
+      <c r="E65" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="H65" s="69"/>
+      <c r="I65" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="J65" s="69"/>
+      <c r="K65" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="69"/>
       <c r="P65" s="36" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="Q65" s="22" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="18.75">
@@ -3516,26 +3612,26 @@
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="69"/>
+      <c r="O66" s="69"/>
       <c r="P66" s="6"/>
       <c r="T66" t="s">
+        <v>3</v>
+      </c>
+      <c r="W66" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" t="s">
         <v>5</v>
-      </c>
-      <c r="W66" t="s">
-        <v>6</v>
-      </c>
-      <c r="X66" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="18.75">
@@ -3545,41 +3641,41 @@
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H67" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="I67" s="61"/>
+        <v>222</v>
+      </c>
+      <c r="H67" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="I67" s="69"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="30" t="s">
-        <v>184</v>
+      <c r="K67" s="62" t="s">
+        <v>233</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
       <c r="P67" s="45" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="33">
       <c r="A68" s="46"/>
       <c r="V68" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z68" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC68" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="38.25">
@@ -3589,29 +3685,29 @@
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
       <c r="D69" s="29" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="29" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="H69" s="29"/>
       <c r="I69" s="31" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="J69" s="29"/>
-      <c r="K69" s="30" t="s">
-        <v>188</v>
+      <c r="K69" s="62" t="s">
+        <v>230</v>
       </c>
       <c r="L69" s="29"/>
       <c r="M69" s="29"/>
       <c r="N69" s="29"/>
       <c r="O69" s="29"/>
       <c r="P69" s="51" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="Q69" s="32"/>
       <c r="R69" s="17"/>
@@ -3653,22 +3749,22 @@
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
       <c r="D71" s="29" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="29" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="H71" s="29"/>
       <c r="I71" s="30" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="J71" s="29"/>
-      <c r="K71" s="30" t="s">
-        <v>194</v>
+      <c r="K71" s="62" t="s">
+        <v>229</v>
       </c>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
@@ -3715,29 +3811,29 @@
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
       <c r="D73" s="15" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="E73" s="29"/>
       <c r="F73" s="29" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="H73" s="29"/>
       <c r="I73" s="30" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="J73" s="29"/>
       <c r="K73" s="30" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
       <c r="N73" s="29"/>
       <c r="O73" s="29"/>
       <c r="P73" s="29" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="Q73" s="32"/>
       <c r="R73" s="17"/>
@@ -3779,32 +3875,32 @@
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
       <c r="D75" s="29" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="H75" s="29"/>
-      <c r="I75" s="30" t="s">
-        <v>204</v>
+      <c r="I75" s="62" t="s">
+        <v>224</v>
       </c>
       <c r="J75" s="29"/>
-      <c r="K75" s="30" t="s">
-        <v>202</v>
+      <c r="K75" s="62" t="s">
+        <v>226</v>
       </c>
       <c r="L75" s="29"/>
       <c r="M75" s="29"/>
       <c r="N75" s="29"/>
       <c r="O75" s="29"/>
-      <c r="P75" s="29" t="s">
-        <v>201</v>
+      <c r="P75" s="61" t="s">
+        <v>223</v>
       </c>
       <c r="Q75" s="32"/>
-      <c r="R75" s="17"/>
+      <c r="R75" s="63"/>
       <c r="S75" s="46"/>
       <c r="T75" s="46"/>
       <c r="U75" s="46"/>
@@ -3843,29 +3939,29 @@
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
       <c r="D77" s="29" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H77" s="29"/>
-      <c r="I77" s="30" t="s">
-        <v>211</v>
+      <c r="I77" s="60" t="s">
+        <v>131</v>
       </c>
       <c r="J77" s="29"/>
-      <c r="K77" s="30" t="s">
-        <v>212</v>
+      <c r="K77" s="60" t="s">
+        <v>220</v>
       </c>
       <c r="L77" s="29"/>
       <c r="M77" s="29"/>
       <c r="N77" s="29"/>
       <c r="O77" s="29"/>
       <c r="P77" s="29" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="Q77" s="32"/>
       <c r="R77" s="17"/>
@@ -3907,29 +4003,29 @@
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
       <c r="D79" s="29" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="29" t="s">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="H79" s="29"/>
-      <c r="I79" s="30" t="s">
-        <v>214</v>
+      <c r="I79" s="64" t="s">
+        <v>317</v>
       </c>
       <c r="J79" s="29"/>
-      <c r="K79" s="30" t="s">
-        <v>217</v>
+      <c r="K79" s="64" t="s">
+        <v>319</v>
       </c>
       <c r="L79" s="29"/>
       <c r="M79" s="29"/>
       <c r="N79" s="29"/>
       <c r="O79" s="29"/>
       <c r="P79" s="52" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="Q79" s="32"/>
       <c r="R79" s="17"/>
@@ -3971,29 +4067,29 @@
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H81" s="29"/>
       <c r="I81" s="44" t="s">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="J81" s="29"/>
-      <c r="K81" s="44" t="s">
-        <v>218</v>
+      <c r="K81" s="60" t="s">
+        <v>217</v>
       </c>
       <c r="L81" s="29"/>
       <c r="M81" s="29"/>
       <c r="N81" s="29"/>
       <c r="O81" s="29"/>
       <c r="P81" s="29" t="s">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="Q81" s="32"/>
       <c r="R81" s="17"/>
@@ -4035,32 +4131,32 @@
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
       <c r="D83" s="43" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E83" s="29"/>
       <c r="F83" s="29" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="H83" s="29"/>
-      <c r="I83" s="44" t="s">
-        <v>227</v>
+      <c r="I83" s="60" t="s">
+        <v>139</v>
       </c>
       <c r="J83" s="29"/>
-      <c r="K83" s="44" t="s">
-        <v>229</v>
+      <c r="K83" s="60" t="s">
+        <v>214</v>
       </c>
       <c r="L83" s="29"/>
       <c r="M83" s="29"/>
       <c r="N83" s="29"/>
       <c r="O83" s="29"/>
       <c r="P83" s="15" t="s">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="Q83" s="32" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="R83" s="17"/>
       <c r="S83" s="46"/>
@@ -4101,29 +4197,29 @@
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
       <c r="D85" s="29" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29" t="s">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="H85" s="29"/>
-      <c r="I85" s="44" t="s">
-        <v>230</v>
+      <c r="I85" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="J85" s="29"/>
-      <c r="K85" s="44" t="s">
-        <v>234</v>
+      <c r="K85" s="64" t="s">
+        <v>325</v>
       </c>
       <c r="L85" s="29"/>
       <c r="M85" s="29"/>
       <c r="N85" s="29"/>
       <c r="O85" s="29"/>
       <c r="P85" s="29" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="Q85" s="32"/>
       <c r="R85" s="17"/>
@@ -4165,29 +4261,29 @@
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
       <c r="D87" s="29" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="H87" s="29"/>
-      <c r="I87" s="44" t="s">
-        <v>239</v>
+      <c r="I87" s="60" t="s">
+        <v>142</v>
       </c>
       <c r="J87" s="29"/>
-      <c r="K87" s="44" t="s">
-        <v>240</v>
+      <c r="K87" s="60" t="s">
+        <v>211</v>
       </c>
       <c r="L87" s="29"/>
       <c r="M87" s="29"/>
       <c r="N87" s="29"/>
       <c r="O87" s="29"/>
       <c r="P87" s="42" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="Q87" s="32"/>
       <c r="R87" s="17"/>
@@ -4222,36 +4318,36 @@
       <c r="V88" s="46"/>
       <c r="W88" s="46"/>
     </row>
-    <row r="89" spans="1:23" ht="18.75">
+    <row r="89" spans="1:23" ht="30">
       <c r="A89" s="29">
         <v>42</v>
       </c>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
       <c r="D89" s="29" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="G89" s="29" t="s">
-        <v>44</v>
+        <v>144</v>
+      </c>
+      <c r="G89" s="47" t="s">
+        <v>206</v>
       </c>
       <c r="H89" s="29"/>
-      <c r="I89" s="44" t="s">
-        <v>244</v>
+      <c r="I89" s="60" t="s">
+        <v>145</v>
       </c>
       <c r="J89" s="29"/>
-      <c r="K89" s="44" t="s">
-        <v>245</v>
+      <c r="K89" s="60" t="s">
+        <v>208</v>
       </c>
       <c r="L89" s="29"/>
       <c r="M89" s="29"/>
       <c r="N89" s="29"/>
       <c r="O89" s="29"/>
       <c r="P89" s="56" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="Q89" s="32"/>
       <c r="R89" s="17"/>
@@ -4293,29 +4389,29 @@
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
       <c r="D91" s="29" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="E91" s="29"/>
       <c r="F91" s="29" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="G91" s="29" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="H91" s="29"/>
-      <c r="I91" s="44" t="s">
-        <v>249</v>
+      <c r="I91" s="64" t="s">
+        <v>323</v>
       </c>
       <c r="J91" s="29"/>
-      <c r="K91" s="44" t="s">
-        <v>251</v>
+      <c r="K91" s="64" t="s">
+        <v>320</v>
       </c>
       <c r="L91" s="29"/>
       <c r="M91" s="29"/>
       <c r="N91" s="29"/>
       <c r="O91" s="29"/>
       <c r="P91" s="57" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="Q91" s="32"/>
       <c r="R91" s="17"/>
@@ -4357,29 +4453,29 @@
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
       <c r="D93" s="29" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="E93" s="29"/>
       <c r="F93" s="29" t="s">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="H93" s="29"/>
-      <c r="I93" s="44" t="s">
-        <v>253</v>
+      <c r="I93" s="60" t="s">
+        <v>148</v>
       </c>
       <c r="J93" s="29"/>
-      <c r="K93" s="44" t="s">
-        <v>257</v>
+      <c r="K93" s="60" t="s">
+        <v>205</v>
       </c>
       <c r="L93" s="29"/>
       <c r="M93" s="29"/>
       <c r="N93" s="29"/>
       <c r="O93" s="29"/>
       <c r="P93" s="42" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="Q93" s="32"/>
       <c r="R93" s="17"/>
@@ -4421,29 +4517,29 @@
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
       <c r="D95" s="29" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="E95" s="29"/>
       <c r="F95" s="29" t="s">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="H95" s="29"/>
-      <c r="I95" s="44" t="s">
-        <v>261</v>
+      <c r="I95" s="60" t="s">
+        <v>152</v>
       </c>
       <c r="J95" s="29"/>
-      <c r="K95" s="44" t="s">
-        <v>262</v>
+      <c r="K95" s="60" t="s">
+        <v>202</v>
       </c>
       <c r="L95" s="29"/>
       <c r="M95" s="29"/>
       <c r="N95" s="29"/>
       <c r="O95" s="29"/>
       <c r="P95" s="43" t="s">
-        <v>258</v>
+        <v>150</v>
       </c>
       <c r="Q95" s="32"/>
       <c r="R95" s="17"/>
@@ -4485,29 +4581,29 @@
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
       <c r="D97" s="29" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="E97" s="29"/>
       <c r="F97" s="29" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="H97" s="29"/>
-      <c r="I97" s="44" t="s">
-        <v>264</v>
+      <c r="I97" s="60" t="s">
+        <v>154</v>
       </c>
       <c r="J97" s="29"/>
-      <c r="K97" s="44" t="s">
-        <v>267</v>
+      <c r="K97" s="60" t="s">
+        <v>199</v>
       </c>
       <c r="L97" s="29"/>
       <c r="M97" s="29"/>
       <c r="N97" s="29"/>
       <c r="O97" s="29"/>
       <c r="P97" s="43" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="Q97" s="32"/>
       <c r="R97" s="17"/>
@@ -4549,29 +4645,29 @@
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
       <c r="D99" s="29" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="29" t="s">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="H99" s="29"/>
-      <c r="I99" s="44" t="s">
-        <v>270</v>
+      <c r="I99" s="60" t="s">
+        <v>157</v>
       </c>
       <c r="J99" s="29"/>
-      <c r="K99" s="44" t="s">
-        <v>271</v>
+      <c r="K99" s="60" t="s">
+        <v>197</v>
       </c>
       <c r="L99" s="29"/>
       <c r="M99" s="29"/>
       <c r="N99" s="29"/>
       <c r="O99" s="29"/>
       <c r="P99" s="43" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="Q99" s="32"/>
       <c r="R99" s="17"/>
@@ -4613,29 +4709,29 @@
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
       <c r="D101" s="29" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="42" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="H101" s="29"/>
-      <c r="I101" s="44" t="s">
-        <v>276</v>
+      <c r="I101" s="60" t="s">
+        <v>162</v>
       </c>
       <c r="J101" s="29"/>
       <c r="K101" s="44" t="s">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="L101" s="29"/>
       <c r="M101" s="29"/>
       <c r="N101" s="29"/>
       <c r="O101" s="29"/>
       <c r="P101" s="29" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="Q101" s="32"/>
       <c r="R101" s="17"/>
@@ -4677,29 +4773,29 @@
       <c r="B103" s="29"/>
       <c r="C103" s="29"/>
       <c r="D103" s="29" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="E103" s="29"/>
       <c r="F103" s="29" t="s">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="H103" s="29"/>
-      <c r="I103" s="44" t="s">
-        <v>280</v>
+      <c r="I103" s="60" t="s">
+        <v>166</v>
       </c>
       <c r="J103" s="29"/>
-      <c r="K103" s="44" t="s">
-        <v>283</v>
+      <c r="K103" s="60" t="s">
+        <v>192</v>
       </c>
       <c r="L103" s="29"/>
       <c r="M103" s="29"/>
       <c r="N103" s="29"/>
       <c r="O103" s="29"/>
       <c r="P103" s="43" t="s">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="Q103" s="32"/>
       <c r="R103" s="17"/>
@@ -4741,29 +4837,29 @@
       <c r="B105" s="29"/>
       <c r="C105" s="29"/>
       <c r="D105" s="29" t="s">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="E105" s="29"/>
       <c r="F105" s="29" t="s">
-        <v>287</v>
+        <v>169</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="H105" s="29"/>
-      <c r="I105" s="44" t="s">
-        <v>288</v>
+      <c r="I105" s="60" t="s">
+        <v>170</v>
       </c>
       <c r="J105" s="29"/>
-      <c r="K105" s="44" t="s">
-        <v>289</v>
+      <c r="K105" s="60" t="s">
+        <v>191</v>
       </c>
       <c r="L105" s="29"/>
       <c r="M105" s="29"/>
       <c r="N105" s="29"/>
       <c r="O105" s="29"/>
       <c r="P105" s="43" t="s">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="Q105" s="32"/>
       <c r="R105" s="17"/>
@@ -4805,29 +4901,29 @@
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
       <c r="D107" s="29" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="E107" s="29"/>
       <c r="F107" s="29" t="s">
-        <v>301</v>
+        <v>178</v>
       </c>
       <c r="G107" s="29" t="s">
-        <v>302</v>
+        <v>188</v>
       </c>
       <c r="H107" s="29"/>
-      <c r="I107" s="54" t="s">
-        <v>303</v>
+      <c r="I107" s="58" t="s">
+        <v>179</v>
       </c>
       <c r="J107" s="29"/>
-      <c r="K107" s="54" t="s">
-        <v>304</v>
+      <c r="K107" s="58" t="s">
+        <v>186</v>
       </c>
       <c r="L107" s="29"/>
       <c r="M107" s="29"/>
       <c r="N107" s="29"/>
       <c r="O107" s="29"/>
       <c r="P107" s="29" t="s">
-        <v>299</v>
+        <v>177</v>
       </c>
       <c r="Q107" s="32"/>
       <c r="R107" s="17"/>
@@ -4869,29 +4965,29 @@
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
       <c r="D109" s="29" t="s">
-        <v>307</v>
+        <v>184</v>
       </c>
       <c r="E109" s="29"/>
       <c r="F109" s="29" t="s">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="H109" s="29"/>
       <c r="I109" s="54" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="J109" s="29"/>
-      <c r="K109" s="54" t="s">
-        <v>306</v>
+      <c r="K109" s="58" t="s">
+        <v>185</v>
       </c>
       <c r="L109" s="29"/>
       <c r="M109" s="29"/>
       <c r="N109" s="29"/>
       <c r="O109" s="29"/>
       <c r="P109" s="55" t="s">
-        <v>305</v>
+        <v>180</v>
       </c>
       <c r="Q109" s="32"/>
       <c r="R109" s="17"/>
@@ -4930,12 +5026,20 @@
       <c r="A111" s="29"/>
       <c r="B111" s="29"/>
       <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
+      <c r="D111" s="29" t="s">
+        <v>331</v>
+      </c>
       <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
+      <c r="F111" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="G111" s="29" t="s">
+        <v>246</v>
+      </c>
       <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
+      <c r="I111" s="64" t="s">
+        <v>332</v>
+      </c>
       <c r="J111" s="29"/>
       <c r="K111" s="29"/>
       <c r="L111" s="29"/>
@@ -9395,12 +9499,19 @@
     <hyperlink ref="I29" r:id="rId95" xr:uid="{C2CF499C-2B61-43FC-BD02-0A89A932970F}"/>
     <hyperlink ref="K29" r:id="rId96" xr:uid="{5965C1C0-2723-41E4-9808-36BE1AE6EA8D}"/>
     <hyperlink ref="K27" r:id="rId97" xr:uid="{933ED795-E23F-43E1-91EA-20C9BE724C3B}"/>
-    <hyperlink ref="I107" r:id="rId98" xr:uid="{47AE1366-A933-4D84-9D29-6A2FB07C01A3}"/>
-    <hyperlink ref="K107" r:id="rId99" xr:uid="{ECE84936-10DC-4554-8579-13D6D888E01E}"/>
-    <hyperlink ref="K109" r:id="rId100" xr:uid="{4ADFDBBF-6723-4FAD-A4E2-7EC6790F2747}"/>
-    <hyperlink ref="I109" r:id="rId101" xr:uid="{0097E1AA-BDF3-4524-811F-0EB7C3518E49}"/>
+    <hyperlink ref="K109" r:id="rId98" xr:uid="{4ADFDBBF-6723-4FAD-A4E2-7EC6790F2747}"/>
+    <hyperlink ref="I109" r:id="rId99" xr:uid="{0097E1AA-BDF3-4524-811F-0EB7C3518E49}"/>
+    <hyperlink ref="I107" r:id="rId100" xr:uid="{47AE1366-A933-4D84-9D29-6A2FB07C01A3}"/>
+    <hyperlink ref="K107" r:id="rId101" xr:uid="{ECE84936-10DC-4554-8579-13D6D888E01E}"/>
+    <hyperlink ref="K46" r:id="rId102" xr:uid="{50543006-25FB-4ECD-B1AC-7C9F19F34005}"/>
+    <hyperlink ref="K15" r:id="rId103" xr:uid="{2A3E836A-897C-412D-B671-B90BB4F85A14}"/>
+    <hyperlink ref="K13" r:id="rId104" xr:uid="{9CD5AA31-38A6-4D7D-A13C-6719D84A1633}"/>
+    <hyperlink ref="K7" r:id="rId105" xr:uid="{607E7406-0259-4A98-8269-B5811E9831B0}"/>
+    <hyperlink ref="I56" r:id="rId106" xr:uid="{0A4E6523-A987-49E1-9F63-5E0B02B80315}"/>
+    <hyperlink ref="K65" r:id="rId107" xr:uid="{BFB25F26-C9E7-460E-9B1A-6E2A971827EA}"/>
+    <hyperlink ref="I111" r:id="rId108" xr:uid="{96507DF0-2768-4FF8-AA46-EAD6AA706F5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId102"/>
+  <pageSetup orientation="portrait" r:id="rId109"/>
 </worksheet>
 </file>